--- a/Resultados_Analisis_Ligas.xlsx
+++ b/Resultados_Analisis_Ligas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">goldEarned_mean</t>
   </si>
@@ -360,6 +360,27 @@
   </si>
   <si>
     <t xml:space="preserve">goldEarnedPerMinute_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visionScore_max</t>
   </si>
 </sst>
 </file>
@@ -1028,34 +1049,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10490.5204251079</v>
+        <v>10474.1097602161</v>
       </c>
       <c r="B2" t="n">
-        <v>3915.65250433635</v>
+        <v>3913.99213785342</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7615.5</v>
+        <v>7601</v>
       </c>
       <c r="E2" t="n">
-        <v>10116</v>
+        <v>10101</v>
       </c>
       <c r="F2" t="n">
-        <v>13029</v>
+        <v>13006</v>
       </c>
       <c r="G2" t="n">
         <v>25620</v>
       </c>
       <c r="H2" t="n">
-        <v>5.27000996346729</v>
+        <v>5.25194191151638</v>
       </c>
       <c r="I2" t="n">
-        <v>4.35613448000336</v>
+        <v>4.34025980563472</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1073,10 +1115,10 @@
         <v>29</v>
       </c>
       <c r="O2" t="n">
-        <v>4.69146462969113</v>
+        <v>4.6903073286052</v>
       </c>
       <c r="P2" t="n">
-        <v>2.90001550236337</v>
+        <v>2.89495202664885</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1094,10 +1136,10 @@
         <v>19</v>
       </c>
       <c r="V2" t="n">
-        <v>7.80172700099635</v>
+        <v>7.82640999662276</v>
       </c>
       <c r="W2" t="n">
-        <v>5.93499198877658</v>
+        <v>5.95003902832601</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1115,31 +1157,31 @@
         <v>37</v>
       </c>
       <c r="AC2" t="n">
-        <v>11500.6333444039</v>
+        <v>11510.896656535</v>
       </c>
       <c r="AD2" t="n">
-        <v>4416.97969555753</v>
+        <v>4429.29353818695</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8316</v>
+        <v>8334</v>
       </c>
       <c r="AG2" t="n">
-        <v>11295</v>
+        <v>11288</v>
       </c>
       <c r="AH2" t="n">
-        <v>14365.5</v>
+        <v>14408</v>
       </c>
       <c r="AI2" t="n">
         <v>27669</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.529724344071737</v>
+        <v>0.529888551165147</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0662152996621134</v>
+        <v>0.0655342761652994</v>
       </c>
       <c r="AL2" t="n">
         <v>0.366666666666667</v>
@@ -1154,13 +1196,13 @@
         <v>0.563829787234043</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.712328767123288</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.12387910993026</v>
+        <v>1.11854103343465</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.42763344030104</v>
+        <v>1.42650964335659</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -1178,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>131.711391564264</v>
+        <v>130.87537993921</v>
       </c>
       <c r="AY2" t="n">
-        <v>89.650888415995</v>
+        <v>89.8579077556082</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1193,37 +1235,37 @@
         <v>148</v>
       </c>
       <c r="BC2" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD2" t="n">
         <v>390</v>
       </c>
       <c r="BE2" t="n">
-        <v>233.797741614082</v>
+        <v>235.83789260385</v>
       </c>
       <c r="BF2" t="n">
-        <v>353.139012384624</v>
+        <v>355.312505289382</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BI2" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BJ2" t="n">
-        <v>273.5</v>
+        <v>275</v>
       </c>
       <c r="BK2" t="n">
         <v>5237</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0797077382929259</v>
+        <v>0.0800405268490375</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.296642419734511</v>
+        <v>0.297529464323793</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1241,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.180338757887745</v>
+        <v>0.181357649442756</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.520374275753614</v>
+        <v>0.522342353771607</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1262,109 +1304,130 @@
         <v>5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>119729.564264364</v>
+        <v>119494.218169537</v>
       </c>
       <c r="CA2" t="n">
-        <v>83013.249328657</v>
+        <v>83286.3283670569</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>50832</v>
+        <v>50022</v>
       </c>
       <c r="CD2" t="n">
-        <v>113626</v>
+        <v>113113</v>
       </c>
       <c r="CE2" t="n">
-        <v>171175</v>
+        <v>171286</v>
       </c>
       <c r="CF2" t="n">
         <v>511043</v>
       </c>
       <c r="CG2" t="n">
-        <v>19783.7103952175</v>
+        <v>19840.7220533604</v>
       </c>
       <c r="CH2" t="n">
-        <v>10445.1824227729</v>
+        <v>10471.1587180566</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12096.5</v>
+        <v>12163</v>
       </c>
       <c r="CK2" t="n">
-        <v>18071</v>
+        <v>18178</v>
       </c>
       <c r="CL2" t="n">
-        <v>25549</v>
+        <v>25662</v>
       </c>
       <c r="CM2" t="n">
         <v>81741</v>
       </c>
       <c r="CN2" t="n">
-        <v>16997.326801727</v>
+        <v>16968.0037149612</v>
       </c>
       <c r="CO2" t="n">
-        <v>11188.5696364241</v>
+        <v>11188.5608484641</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>8451</v>
+        <v>8442</v>
       </c>
       <c r="CR2" t="n">
-        <v>14759</v>
+        <v>14741</v>
       </c>
       <c r="CS2" t="n">
-        <v>23006.5</v>
+        <v>22955</v>
       </c>
       <c r="CT2" t="n">
         <v>95083</v>
       </c>
       <c r="CU2" t="n">
-        <v>9014.49319163069</v>
+        <v>9009.8253968254</v>
       </c>
       <c r="CV2" t="n">
-        <v>10759.2004453611</v>
+        <v>10789.6813023522</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1586.5</v>
+        <v>1570</v>
       </c>
       <c r="CY2" t="n">
-        <v>5005</v>
+        <v>4962</v>
       </c>
       <c r="CZ2" t="n">
-        <v>12825.5</v>
+        <v>12796</v>
       </c>
       <c r="DA2" t="n">
         <v>84698</v>
       </c>
       <c r="DB2" t="n">
-        <v>417.288913608521</v>
+        <v>416.544989717309</v>
       </c>
       <c r="DC2" t="n">
-        <v>103.377958507906</v>
+        <v>103.343391612198</v>
       </c>
       <c r="DD2" t="n">
         <v>199.318885448916</v>
       </c>
       <c r="DE2" t="n">
-        <v>338.178051044708</v>
+        <v>337.059829059829</v>
       </c>
       <c r="DF2" t="n">
-        <v>416.913319238901</v>
+        <v>416.178861788618</v>
       </c>
       <c r="DG2" t="n">
-        <v>488.971845042438</v>
+        <v>488.505224897774</v>
       </c>
       <c r="DH2" t="n">
         <v>853.634627625716</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>31.4991556906451</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24.2438780785356</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>24</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>38</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1718,34 +1781,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10491.1546246837</v>
+        <v>10487.8982445701</v>
       </c>
       <c r="B2" t="n">
-        <v>3785.12428485347</v>
+        <v>3810.7338744219</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7678</v>
+        <v>7638</v>
       </c>
       <c r="E2" t="n">
-        <v>10098</v>
+        <v>10085</v>
       </c>
       <c r="F2" t="n">
-        <v>12936</v>
+        <v>12940</v>
       </c>
       <c r="G2" t="n">
         <v>26584</v>
       </c>
       <c r="H2" t="n">
-        <v>5.26679786336801</v>
+        <v>5.23296637905385</v>
       </c>
       <c r="I2" t="n">
-        <v>4.37858992445794</v>
+        <v>4.38118906877</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1757,16 +1841,16 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>4.73207759347765</v>
+        <v>4.74501636417733</v>
       </c>
       <c r="P2" t="n">
-        <v>2.80855544266398</v>
+        <v>2.8251885221599</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1775,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -1784,10 +1868,10 @@
         <v>19</v>
       </c>
       <c r="V2" t="n">
-        <v>8.01096429575485</v>
+        <v>8.01428146385005</v>
       </c>
       <c r="W2" t="n">
-        <v>5.91789939874946</v>
+        <v>5.94622015017321</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1805,37 +1889,37 @@
         <v>44</v>
       </c>
       <c r="AC2" t="n">
-        <v>11484.5788585887</v>
+        <v>11493.1645343648</v>
       </c>
       <c r="AD2" t="n">
-        <v>4151.10055687359</v>
+        <v>4170.65184232449</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8496</v>
+        <v>8441</v>
       </c>
       <c r="AG2" t="n">
         <v>11348</v>
       </c>
       <c r="AH2" t="n">
-        <v>14183</v>
+        <v>14228</v>
       </c>
       <c r="AI2" t="n">
         <v>27136</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.530784368850155</v>
+        <v>0.533769711395418</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0650577368475431</v>
+        <v>0.0620502930834303</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.473684210526316</v>
+        <v>0.474747474747475</v>
       </c>
       <c r="AN2" t="n">
         <v>0.532608695652174</v>
@@ -1844,13 +1928,13 @@
         <v>0.578947368421053</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>0.738461538461539</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.16418330053416</v>
+        <v>1.18327878607557</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.48881440141041</v>
+        <v>1.50308217741966</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -1868,52 +1952,52 @@
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>123.192015743604</v>
+        <v>126.041059208569</v>
       </c>
       <c r="AY2" t="n">
-        <v>89.2183370012499</v>
+        <v>88.8873925353584</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB2" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BC2" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BD2" t="n">
         <v>366</v>
       </c>
       <c r="BE2" t="n">
-        <v>250.44728703964</v>
+        <v>248.434096994942</v>
       </c>
       <c r="BF2" t="n">
-        <v>356.381422137184</v>
+        <v>357.688544042761</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BI2" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BJ2" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="BK2" t="n">
         <v>4766</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0967107112735451</v>
+        <v>0.0871764355846474</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.321139140234978</v>
+        <v>0.304459564313056</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1931,10 +2015,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.267641270733764</v>
+        <v>0.247247842903898</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.679774806857043</v>
+        <v>0.656364682166926</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1952,109 +2036,130 @@
         <v>5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>120578.865054821</v>
+        <v>119573.008033323</v>
       </c>
       <c r="CA2" t="n">
-        <v>81185.7350898591</v>
+        <v>81118.369021025</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>50971</v>
+        <v>48272</v>
       </c>
       <c r="CD2" t="n">
-        <v>116716</v>
+        <v>114737</v>
       </c>
       <c r="CE2" t="n">
-        <v>173817</v>
+        <v>172744</v>
       </c>
       <c r="CF2" t="n">
-        <v>469744</v>
+        <v>462060</v>
       </c>
       <c r="CG2" t="n">
-        <v>20108.17289851</v>
+        <v>19987.9354358822</v>
       </c>
       <c r="CH2" t="n">
-        <v>10009.0358801669</v>
+        <v>9981.10883996836</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12858</v>
+        <v>12801</v>
       </c>
       <c r="CK2" t="n">
-        <v>18457</v>
+        <v>18388</v>
       </c>
       <c r="CL2" t="n">
-        <v>25631</v>
+        <v>25395</v>
       </c>
       <c r="CM2" t="n">
         <v>71727</v>
       </c>
       <c r="CN2" t="n">
-        <v>16769.1087995502</v>
+        <v>16813.3344242785</v>
       </c>
       <c r="CO2" t="n">
-        <v>11097.2553400544</v>
+        <v>11214.2384831595</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>8399</v>
+        <v>8341</v>
       </c>
       <c r="CR2" t="n">
         <v>14618</v>
       </c>
       <c r="CS2" t="n">
-        <v>22363</v>
+        <v>22462</v>
       </c>
       <c r="CT2" t="n">
         <v>94432</v>
       </c>
       <c r="CU2" t="n">
-        <v>10332.5102614563</v>
+        <v>10006.2213626897</v>
       </c>
       <c r="CV2" t="n">
-        <v>11880.3470887219</v>
+        <v>11587.7566797906</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1821</v>
+        <v>1765</v>
       </c>
       <c r="CY2" t="n">
-        <v>5913</v>
+        <v>5702</v>
       </c>
       <c r="CZ2" t="n">
-        <v>14504</v>
+        <v>14128</v>
       </c>
       <c r="DA2" t="n">
         <v>78710</v>
       </c>
       <c r="DB2" t="n">
-        <v>415.452685981507</v>
+        <v>415.246631737728</v>
       </c>
       <c r="DC2" t="n">
-        <v>105.159871116563</v>
+        <v>106.131506510416</v>
       </c>
       <c r="DD2" t="n">
         <v>202.025761124122</v>
       </c>
       <c r="DE2" t="n">
-        <v>335.985915492958</v>
+        <v>334.229408792319</v>
       </c>
       <c r="DF2" t="n">
-        <v>413.723482077542</v>
+        <v>413.647570703408</v>
       </c>
       <c r="DG2" t="n">
-        <v>486.170798898072</v>
+        <v>487.119126720456</v>
       </c>
       <c r="DH2" t="n">
         <v>973.504624871531</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>30.4031538232669</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24.2174715964865</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>35</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2408,34 +2513,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10078.9109671226</v>
+        <v>10064.1497418244</v>
       </c>
       <c r="B2" t="n">
-        <v>3707.23883440446</v>
+        <v>3713.91454934474</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7333</v>
+        <v>7326.5</v>
       </c>
       <c r="E2" t="n">
-        <v>9711</v>
+        <v>9683</v>
       </c>
       <c r="F2" t="n">
-        <v>12481.5</v>
+        <v>12459.5</v>
       </c>
       <c r="G2" t="n">
         <v>26633</v>
       </c>
       <c r="H2" t="n">
-        <v>4.92224622030238</v>
+        <v>4.90877796901893</v>
       </c>
       <c r="I2" t="n">
-        <v>4.07399183254004</v>
+        <v>4.08225668383153</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2453,10 +2579,10 @@
         <v>29</v>
       </c>
       <c r="O2" t="n">
-        <v>4.37580993520518</v>
+        <v>4.3641504794689</v>
       </c>
       <c r="P2" t="n">
-        <v>2.78470040093439</v>
+        <v>2.78362566618799</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2474,10 +2600,10 @@
         <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>7.13630909527238</v>
+        <v>7.12343250553233</v>
       </c>
       <c r="W2" t="n">
-        <v>5.54933739895343</v>
+        <v>5.56268302356116</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -2495,52 +2621,52 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>10998.7710583153</v>
+        <v>10970.3088271453</v>
       </c>
       <c r="AD2" t="n">
-        <v>4166.08796213028</v>
+        <v>4163.83510517732</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>7883</v>
+        <v>7857</v>
       </c>
       <c r="AG2" t="n">
-        <v>10753</v>
+        <v>10735</v>
       </c>
       <c r="AH2" t="n">
-        <v>13779</v>
+        <v>13730.5</v>
       </c>
       <c r="AI2" t="n">
         <v>27899</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.549796016318694</v>
+        <v>0.549053356282272</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0556634610154308</v>
+        <v>0.0542909177425961</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.43956043956044</v>
       </c>
       <c r="AM2" t="n">
         <v>0.508771929824561</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.544444444444444</v>
+        <v>0.544303797468354</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.588888888888889</v>
+        <v>0.585142118863049</v>
       </c>
       <c r="AP2" t="n">
         <v>0.704545454545455</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.07367410607151</v>
+        <v>1.07155151217113</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.34160339736182</v>
+        <v>1.3432327068535</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -2558,52 +2684,52 @@
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>129.262059035277</v>
+        <v>128.760265552004</v>
       </c>
       <c r="AY2" t="n">
-        <v>89.7249916769518</v>
+        <v>89.6092836892135</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BB2" t="n">
         <v>145</v>
       </c>
       <c r="BC2" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD2" t="n">
         <v>390</v>
       </c>
       <c r="BE2" t="n">
-        <v>233.239260859131</v>
+        <v>234.49520531104</v>
       </c>
       <c r="BF2" t="n">
-        <v>372.52321532626</v>
+        <v>376.365534954713</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BI2" t="n">
         <v>149</v>
       </c>
       <c r="BJ2" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BK2" t="n">
         <v>4903</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0736741060715143</v>
+        <v>0.0749938529628719</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.280756662883094</v>
+        <v>0.283210667273728</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -2621,10 +2747,10 @@
         <v>2</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.287497000239981</v>
+        <v>0.291369559872142</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.72463982705316</v>
+        <v>0.73049772323238</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -2642,109 +2768,130 @@
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>118701.697144228</v>
+        <v>118428.038603393</v>
       </c>
       <c r="CA2" t="n">
-        <v>77419.6565703374</v>
+        <v>77410.6930645669</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>60150</v>
+        <v>59424</v>
       </c>
       <c r="CD2" t="n">
-        <v>112007</v>
+        <v>111682</v>
       </c>
       <c r="CE2" t="n">
-        <v>167479</v>
+        <v>167387</v>
       </c>
       <c r="CF2" t="n">
-        <v>472782</v>
+        <v>467485</v>
       </c>
       <c r="CG2" t="n">
-        <v>18626.0494360451</v>
+        <v>18612.8701745759</v>
       </c>
       <c r="CH2" t="n">
-        <v>9607.00849908254</v>
+        <v>9629.59128308441</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>11674</v>
+        <v>11656.5</v>
       </c>
       <c r="CK2" t="n">
-        <v>17087</v>
+        <v>17073</v>
       </c>
       <c r="CL2" t="n">
-        <v>23992.5</v>
+        <v>23978.5</v>
       </c>
       <c r="CM2" t="n">
         <v>70134</v>
       </c>
       <c r="CN2" t="n">
-        <v>15906.1756659467</v>
+        <v>15836.2500614704</v>
       </c>
       <c r="CO2" t="n">
-        <v>10132.3520437936</v>
+        <v>10117.8891830307</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>8264.5</v>
+        <v>8220</v>
       </c>
       <c r="CR2" t="n">
-        <v>13640</v>
+        <v>13568</v>
       </c>
       <c r="CS2" t="n">
-        <v>21847</v>
+        <v>21775.5</v>
       </c>
       <c r="CT2" t="n">
         <v>75070</v>
       </c>
       <c r="CU2" t="n">
-        <v>9881.93952483801</v>
+        <v>9927.18441111384</v>
       </c>
       <c r="CV2" t="n">
-        <v>11592.7133389053</v>
+        <v>11655.2848560291</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1855.5</v>
+        <v>1838.5</v>
       </c>
       <c r="CY2" t="n">
-        <v>5334</v>
+        <v>5317</v>
       </c>
       <c r="CZ2" t="n">
-        <v>13824.5</v>
+        <v>13959</v>
       </c>
       <c r="DA2" t="n">
         <v>67613</v>
       </c>
       <c r="DB2" t="n">
-        <v>423.971192505765</v>
+        <v>423.512131867724</v>
       </c>
       <c r="DC2" t="n">
-        <v>105.271320826936</v>
+        <v>105.42446047019</v>
       </c>
       <c r="DD2" t="n">
         <v>178.190013869626</v>
       </c>
       <c r="DE2" t="n">
-        <v>349.713450503447</v>
+        <v>349.32201168855</v>
       </c>
       <c r="DF2" t="n">
-        <v>421.412487205732</v>
+        <v>421.013916500994</v>
       </c>
       <c r="DG2" t="n">
-        <v>491.861083621969</v>
+        <v>491.743988998114</v>
       </c>
       <c r="DH2" t="n">
         <v>2307.69230769231</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>30.681091713794</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>22.5822940358915</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>25</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>38</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3098,34 +3245,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9911.61640696609</v>
+        <v>9870.44845099035</v>
       </c>
       <c r="B2" t="n">
-        <v>3837.35429069099</v>
+        <v>3845.3675664422</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7139.5</v>
+        <v>7082</v>
       </c>
       <c r="E2" t="n">
-        <v>9313.5</v>
+        <v>9240</v>
       </c>
       <c r="F2" t="n">
-        <v>12403</v>
+        <v>12328</v>
       </c>
       <c r="G2" t="n">
         <v>32405</v>
       </c>
       <c r="H2" t="n">
-        <v>4.67277726856095</v>
+        <v>4.5997968511935</v>
       </c>
       <c r="I2" t="n">
-        <v>3.99462976105436</v>
+        <v>3.99011990662921</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3143,10 +3311,10 @@
         <v>31</v>
       </c>
       <c r="O2" t="n">
-        <v>4.50091659028414</v>
+        <v>4.51701371254444</v>
       </c>
       <c r="P2" t="n">
-        <v>2.85131292641107</v>
+        <v>2.86658631368671</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3164,10 +3332,10 @@
         <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>7.61549037580202</v>
+        <v>7.7064499746064</v>
       </c>
       <c r="W2" t="n">
-        <v>5.90550673724212</v>
+        <v>5.98848522816144</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -3185,52 +3353,52 @@
         <v>36</v>
       </c>
       <c r="AC2" t="n">
-        <v>11001.8175985335</v>
+        <v>10970.6460132047</v>
       </c>
       <c r="AD2" t="n">
-        <v>4405.07755698842</v>
+        <v>4445.75000030124</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>7842.5</v>
+        <v>7755</v>
       </c>
       <c r="AG2" t="n">
-        <v>10618</v>
+        <v>10573</v>
       </c>
       <c r="AH2" t="n">
-        <v>13824.25</v>
+        <v>13755</v>
       </c>
       <c r="AI2" t="n">
         <v>32761</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.546287809349221</v>
+        <v>0.54139156932453</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0693504022062925</v>
+        <v>0.0633176558898051</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.515789473684211</v>
+        <v>0.507692307692308</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.537634408602151</v>
+        <v>0.534090909090909</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.595238095238095</v>
+        <v>0.593406593406593</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.663157894736842</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.05499541704858</v>
+        <v>1.03605891315389</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.39977736979345</v>
+        <v>1.37605093192773</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -3248,19 +3416,19 @@
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>125.274060494959</v>
+        <v>122.236668359573</v>
       </c>
       <c r="AY2" t="n">
-        <v>90.0309848131237</v>
+        <v>91.6156298587909</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="BC2" t="n">
         <v>198</v>
@@ -3269,31 +3437,31 @@
         <v>420</v>
       </c>
       <c r="BE2" t="n">
-        <v>233.919798350137</v>
+        <v>233.598781107161</v>
       </c>
       <c r="BF2" t="n">
-        <v>384.505152464517</v>
+        <v>369.223071245524</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BI2" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BJ2" t="n">
-        <v>258.75</v>
+        <v>260</v>
       </c>
       <c r="BK2" t="n">
-        <v>5938</v>
+        <v>4917</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.076076993583868</v>
+        <v>0.0812595226003047</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.294665407640457</v>
+        <v>0.304937748865079</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -3311,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.240146654445463</v>
+        <v>0.251904520060945</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.648831755529351</v>
+        <v>0.664524769847398</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -3332,109 +3500,130 @@
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>111741.414757104</v>
+        <v>111109.361097004</v>
       </c>
       <c r="CA2" t="n">
-        <v>79720.1013159575</v>
+        <v>80722.7301285747</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>45223.75</v>
+        <v>38294</v>
       </c>
       <c r="CD2" t="n">
-        <v>102594</v>
+        <v>102204</v>
       </c>
       <c r="CE2" t="n">
-        <v>159892.5</v>
+        <v>160239</v>
       </c>
       <c r="CF2" t="n">
         <v>517287</v>
       </c>
       <c r="CG2" t="n">
-        <v>18545.0783684693</v>
+        <v>18564.093956323</v>
       </c>
       <c r="CH2" t="n">
-        <v>9643.84658216422</v>
+        <v>9652.82544159499</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>11405</v>
+        <v>11408</v>
       </c>
       <c r="CK2" t="n">
-        <v>16914</v>
+        <v>16930</v>
       </c>
       <c r="CL2" t="n">
-        <v>23926.75</v>
+        <v>24046</v>
       </c>
       <c r="CM2" t="n">
         <v>64166</v>
       </c>
       <c r="CN2" t="n">
-        <v>15195.945004583</v>
+        <v>14988.6277298121</v>
       </c>
       <c r="CO2" t="n">
-        <v>10497.9663079189</v>
+        <v>10482.5321563836</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7295.75</v>
+        <v>7107</v>
       </c>
       <c r="CR2" t="n">
-        <v>12585.5</v>
+        <v>12264</v>
       </c>
       <c r="CS2" t="n">
-        <v>20930.75</v>
+        <v>20758</v>
       </c>
       <c r="CT2" t="n">
         <v>71696</v>
       </c>
       <c r="CU2" t="n">
-        <v>9194.43308890926</v>
+        <v>9291.29862874556</v>
       </c>
       <c r="CV2" t="n">
-        <v>11221.7269776616</v>
+        <v>11356.0548454849</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1474.25</v>
+        <v>1465</v>
       </c>
       <c r="CY2" t="n">
-        <v>5018.5</v>
+        <v>5029</v>
       </c>
       <c r="CZ2" t="n">
-        <v>12524.75</v>
+        <v>12758</v>
       </c>
       <c r="DA2" t="n">
         <v>86864</v>
       </c>
       <c r="DB2" t="n">
-        <v>413.786735182478</v>
+        <v>411.679637851346</v>
       </c>
       <c r="DC2" t="n">
-        <v>107.516381324701</v>
+        <v>108.865136729767</v>
       </c>
       <c r="DD2" t="n">
         <v>200.875273522976</v>
       </c>
       <c r="DE2" t="n">
-        <v>333.14810058285</v>
+        <v>328.634686346863</v>
       </c>
       <c r="DF2" t="n">
-        <v>410.501317370989</v>
+        <v>408.255451713396</v>
       </c>
       <c r="DG2" t="n">
-        <v>485.579062014212</v>
+        <v>485.336225596529</v>
       </c>
       <c r="DH2" t="n">
         <v>1875</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>33.062468257999</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>23.7042811603172</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>17</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>26</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>40</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3788,34 +3977,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10175.1025869759</v>
+        <v>10198.3784179688</v>
       </c>
       <c r="B2" t="n">
-        <v>3832.04712514103</v>
+        <v>3840.47926866638</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7330</v>
+        <v>7370.5</v>
       </c>
       <c r="E2" t="n">
-        <v>9779.5</v>
+        <v>9805.5</v>
       </c>
       <c r="F2" t="n">
-        <v>12778.5</v>
+        <v>12792.25</v>
       </c>
       <c r="G2" t="n">
         <v>23316</v>
       </c>
       <c r="H2" t="n">
-        <v>5.54504906333631</v>
+        <v>5.5810546875</v>
       </c>
       <c r="I2" t="n">
-        <v>4.48916341317646</v>
+        <v>4.52818049809084</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3833,10 +4043,10 @@
         <v>27</v>
       </c>
       <c r="O2" t="n">
-        <v>4.51204281891169</v>
+        <v>4.45703125</v>
       </c>
       <c r="P2" t="n">
-        <v>2.79479458476557</v>
+        <v>2.75264395261148</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3851,13 +4061,13 @@
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>7.11552185548617</v>
+        <v>7.28271484375</v>
       </c>
       <c r="W2" t="n">
-        <v>5.43671061663783</v>
+        <v>5.42692756511498</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -3875,52 +4085,52 @@
         <v>40</v>
       </c>
       <c r="AC2" t="n">
-        <v>10711.2145405888</v>
+        <v>10655.7109375</v>
       </c>
       <c r="AD2" t="n">
-        <v>4112.28790974778</v>
+        <v>4105.59704033217</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>7745</v>
+        <v>7617.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>10398.5</v>
+        <v>10331</v>
       </c>
       <c r="AH2" t="n">
-        <v>13524.75</v>
+        <v>13510.25</v>
       </c>
       <c r="AI2" t="n">
         <v>26698</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.545941123996432</v>
+        <v>0.55078125</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0540794189311013</v>
+        <v>0.0452118758222754</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.515789473684211</v>
+        <v>0.516129032258065</v>
       </c>
       <c r="AN2" t="n">
         <v>0.555555555555556</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.574468085106383</v>
+        <v>0.576086956521739</v>
       </c>
       <c r="AP2" t="n">
         <v>0.659090909090909</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.09723461195361</v>
+        <v>1.08740234375</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.41307764202753</v>
+        <v>1.40821703671895</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -3938,10 +4148,10 @@
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>111.992417484389</v>
+        <v>111.84423828125</v>
       </c>
       <c r="AY2" t="n">
-        <v>87.1355887710425</v>
+        <v>87.7084405751517</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -3950,40 +4160,40 @@
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BC2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BD2" t="n">
         <v>380</v>
       </c>
       <c r="BE2" t="n">
-        <v>193.092774308653</v>
+        <v>180.1591796875</v>
       </c>
       <c r="BF2" t="n">
-        <v>276.844865035043</v>
+        <v>219.946089796826</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BI2" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="BK2" t="n">
-        <v>4789</v>
+        <v>4412</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.108385370205174</v>
+        <v>0.10791015625</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.341050137602717</v>
+        <v>0.337489695128465</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -3998,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.39964317573595</v>
+        <v>0.404296875</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.792625457460604</v>
+        <v>0.797909514485997</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -4022,109 +4232,130 @@
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>121067.073148974</v>
+        <v>120900.4140625</v>
       </c>
       <c r="CA2" t="n">
-        <v>76691.7620970654</v>
+        <v>77372.0421417744</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>62261.25</v>
+        <v>60929</v>
       </c>
       <c r="CD2" t="n">
-        <v>115627.5</v>
+        <v>115711</v>
       </c>
       <c r="CE2" t="n">
-        <v>169343.75</v>
+        <v>169362.75</v>
       </c>
       <c r="CF2" t="n">
         <v>496641</v>
       </c>
       <c r="CG2" t="n">
-        <v>18978.7747546833</v>
+        <v>18763.23046875</v>
       </c>
       <c r="CH2" t="n">
-        <v>9576.50505292357</v>
+        <v>9487.65964073008</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12050.75</v>
+        <v>11940.5</v>
       </c>
       <c r="CK2" t="n">
-        <v>17547</v>
+        <v>17133.5</v>
       </c>
       <c r="CL2" t="n">
-        <v>24321.75</v>
+        <v>24092.25</v>
       </c>
       <c r="CM2" t="n">
         <v>69232</v>
       </c>
       <c r="CN2" t="n">
-        <v>15940.5178412132</v>
+        <v>15911.4301757812</v>
       </c>
       <c r="CO2" t="n">
-        <v>10711.0494964911</v>
+        <v>10742.3278755874</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7882.75</v>
+        <v>7769.5</v>
       </c>
       <c r="CR2" t="n">
-        <v>13581</v>
+        <v>13535.5</v>
       </c>
       <c r="CS2" t="n">
-        <v>21639.25</v>
+        <v>21507</v>
       </c>
       <c r="CT2" t="n">
         <v>68837</v>
       </c>
       <c r="CU2" t="n">
-        <v>12085.8706512043</v>
+        <v>12117.6005859375</v>
       </c>
       <c r="CV2" t="n">
-        <v>12416.7142962077</v>
+        <v>12379.1327942353</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>2313.25</v>
+        <v>2310</v>
       </c>
       <c r="CY2" t="n">
-        <v>7524</v>
+        <v>7547.5</v>
       </c>
       <c r="CZ2" t="n">
-        <v>18949.75</v>
+        <v>19154.25</v>
       </c>
       <c r="DA2" t="n">
         <v>77602</v>
       </c>
       <c r="DB2" t="n">
-        <v>427.444974289724</v>
+        <v>428.006015678279</v>
       </c>
       <c r="DC2" t="n">
-        <v>105.694651061572</v>
+        <v>106.720620044429</v>
       </c>
       <c r="DD2" t="n">
-        <v>183.53711790393</v>
+        <v>208.320526893524</v>
       </c>
       <c r="DE2" t="n">
-        <v>349.196182396607</v>
+        <v>348.739570544272</v>
       </c>
       <c r="DF2" t="n">
-        <v>425.195572077472</v>
+        <v>425.091885441527</v>
       </c>
       <c r="DG2" t="n">
-        <v>498.306611040906</v>
+        <v>498.968270379266</v>
       </c>
       <c r="DH2" t="n">
         <v>788.237378210806</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>31.0712890625</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24.4499787638347</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>24</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>37</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4478,34 +4709,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10235.396011396</v>
+        <v>10296.7249434815</v>
       </c>
       <c r="B2" t="n">
-        <v>3880.60662860844</v>
+        <v>3859.25137558348</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7224.75</v>
+        <v>7279.5</v>
       </c>
       <c r="E2" t="n">
-        <v>9702</v>
+        <v>9822</v>
       </c>
       <c r="F2" t="n">
-        <v>12852.5</v>
+        <v>12920</v>
       </c>
       <c r="G2" t="n">
         <v>22478</v>
       </c>
       <c r="H2" t="n">
-        <v>5.45014245014245</v>
+        <v>5.52147701582517</v>
       </c>
       <c r="I2" t="n">
-        <v>4.60696967823609</v>
+        <v>4.57393905517215</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4514,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>8</v>
@@ -4523,10 +4775,10 @@
         <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>4.83119658119658</v>
+        <v>4.80557648831952</v>
       </c>
       <c r="P2" t="n">
-        <v>2.87751793606505</v>
+        <v>2.85969530989751</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4544,10 +4796,10 @@
         <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>8.3468660968661</v>
+        <v>8.22984174830445</v>
       </c>
       <c r="W2" t="n">
-        <v>6.10516509010981</v>
+        <v>5.95425613437151</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -4559,40 +4811,40 @@
         <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>35</v>
       </c>
       <c r="AC2" t="n">
-        <v>11019.5071225071</v>
+        <v>11038.5923134891</v>
       </c>
       <c r="AD2" t="n">
-        <v>4165.76238162855</v>
+        <v>4131.44442331704</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>7867.75</v>
+        <v>7914.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10811</v>
+        <v>10868</v>
       </c>
       <c r="AH2" t="n">
-        <v>13927.25</v>
+        <v>13924</v>
       </c>
       <c r="AI2" t="n">
         <v>25517</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.540598290598291</v>
+        <v>0.538809344385833</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0637029099879657</v>
+        <v>0.0580249871631843</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.430379746835443</v>
       </c>
       <c r="AM2" t="n">
         <v>0.48936170212766</v>
@@ -4604,13 +4856,13 @@
         <v>0.581081081081081</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.658823529411765</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.938746438746439</v>
+        <v>0.959306706857573</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.34358702081</v>
+        <v>1.35867764714313</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -4628,10 +4880,10 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>93.6873219373219</v>
+        <v>94.1092690278824</v>
       </c>
       <c r="AY2" t="n">
-        <v>88.9608727142294</v>
+        <v>89.3033248431853</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -4643,37 +4895,37 @@
         <v>40</v>
       </c>
       <c r="BC2" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BD2" t="n">
         <v>353</v>
       </c>
       <c r="BE2" t="n">
-        <v>232.84188034188</v>
+        <v>236.635267520723</v>
       </c>
       <c r="BF2" t="n">
-        <v>308.460438966321</v>
+        <v>316.118516768079</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>94</v>
+        <v>92.5</v>
       </c>
       <c r="BI2" t="n">
-        <v>165.5</v>
+        <v>169</v>
       </c>
       <c r="BJ2" t="n">
-        <v>279.25</v>
+        <v>282.5</v>
       </c>
       <c r="BK2" t="n">
         <v>4388</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.10968660968661</v>
+        <v>0.113790504898267</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.340964484711864</v>
+        <v>0.347168718312338</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -4691,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.358974358974359</v>
+        <v>0.379804069329314</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.730692035248482</v>
+        <v>0.746322683769708</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -4706,115 +4958,136 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2" t="n">
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>119060.16025641</v>
+        <v>122033.414468726</v>
       </c>
       <c r="CA2" t="n">
-        <v>87471.6020017138</v>
+        <v>87334.2489925979</v>
       </c>
       <c r="CB2" t="n">
         <v>201</v>
       </c>
       <c r="CC2" t="n">
-        <v>29758</v>
+        <v>36645</v>
       </c>
       <c r="CD2" t="n">
-        <v>110715.5</v>
+        <v>114257</v>
       </c>
       <c r="CE2" t="n">
-        <v>183079.25</v>
+        <v>185403</v>
       </c>
       <c r="CF2" t="n">
         <v>461202</v>
       </c>
       <c r="CG2" t="n">
-        <v>20142.0384615385</v>
+        <v>20237.8379804069</v>
       </c>
       <c r="CH2" t="n">
-        <v>10677.6693315957</v>
+        <v>10732.1576511574</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12179.25</v>
+        <v>12253</v>
       </c>
       <c r="CK2" t="n">
-        <v>17980</v>
+        <v>18011</v>
       </c>
       <c r="CL2" t="n">
-        <v>26681</v>
+        <v>26764.5</v>
       </c>
       <c r="CM2" t="n">
         <v>71030</v>
       </c>
       <c r="CN2" t="n">
-        <v>15681.9394586895</v>
+        <v>15776.701582517</v>
       </c>
       <c r="CO2" t="n">
-        <v>10963.8904196734</v>
+        <v>10774.3288713182</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7023.5</v>
+        <v>7287.5</v>
       </c>
       <c r="CR2" t="n">
-        <v>13143.5</v>
+        <v>13426</v>
       </c>
       <c r="CS2" t="n">
-        <v>21585.25</v>
+        <v>21657</v>
       </c>
       <c r="CT2" t="n">
         <v>83916</v>
       </c>
       <c r="CU2" t="n">
-        <v>11963.4992877493</v>
+        <v>12449.5915599096</v>
       </c>
       <c r="CV2" t="n">
-        <v>13364.3979574386</v>
+        <v>13534.2280135234</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1724</v>
+        <v>1956</v>
       </c>
       <c r="CY2" t="n">
-        <v>6400</v>
+        <v>7052</v>
       </c>
       <c r="CZ2" t="n">
-        <v>18719.25</v>
+        <v>19683</v>
       </c>
       <c r="DA2" t="n">
         <v>77238</v>
       </c>
       <c r="DB2" t="n">
-        <v>408.147284899179</v>
+        <v>410.957281325982</v>
       </c>
       <c r="DC2" t="n">
-        <v>107.955297190177</v>
+        <v>107.631413320127</v>
       </c>
       <c r="DD2" t="n">
         <v>193.831168831169</v>
       </c>
       <c r="DE2" t="n">
-        <v>321.207944025373</v>
+        <v>326.076521517698</v>
       </c>
       <c r="DF2" t="n">
-        <v>407.604770139858</v>
+        <v>409.834710743802</v>
       </c>
       <c r="DG2" t="n">
-        <v>482.999331799519</v>
+        <v>485.28616253385</v>
       </c>
       <c r="DH2" t="n">
         <v>768.103746397695</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>32.8779201205727</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>24.7028222912889</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>25</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>41</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5168,34 +5441,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10266.5934287636</v>
+        <v>10217.0416431554</v>
       </c>
       <c r="B2" t="n">
-        <v>3807.90944074758</v>
+        <v>3754.81099670168</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7495</v>
+        <v>7470</v>
       </c>
       <c r="E2" t="n">
-        <v>9970</v>
+        <v>9928</v>
       </c>
       <c r="F2" t="n">
-        <v>12701</v>
+        <v>12663</v>
       </c>
       <c r="G2" t="n">
-        <v>34146</v>
+        <v>27971</v>
       </c>
       <c r="H2" t="n">
-        <v>5.23354789124796</v>
+        <v>5.16183275025392</v>
       </c>
       <c r="I2" t="n">
-        <v>4.18707939340688</v>
+        <v>4.11631028534686</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -5210,13 +5504,13 @@
         <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O2" t="n">
-        <v>4.58362955134979</v>
+        <v>4.54327953955536</v>
       </c>
       <c r="P2" t="n">
-        <v>2.91408244339276</v>
+        <v>2.89501502541122</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -5234,10 +5528,10 @@
         <v>21</v>
       </c>
       <c r="V2" t="n">
-        <v>7.53069459121914</v>
+        <v>7.57589436858142</v>
       </c>
       <c r="W2" t="n">
-        <v>5.72811850188923</v>
+        <v>5.73353183040264</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -5249,40 +5543,40 @@
         <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>38</v>
       </c>
       <c r="AC2" t="n">
-        <v>11382.177346527</v>
+        <v>11358.2135199187</v>
       </c>
       <c r="AD2" t="n">
-        <v>4333.56823462829</v>
+        <v>4293.59164060816</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8229</v>
+        <v>8220</v>
       </c>
       <c r="AG2" t="n">
-        <v>11275</v>
+        <v>11255</v>
       </c>
       <c r="AH2" t="n">
-        <v>14233</v>
+        <v>14191</v>
       </c>
       <c r="AI2" t="n">
         <v>30971</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.531078874051302</v>
+        <v>0.529285633675657</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.069450745699366</v>
+        <v>0.0596604282761526</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.301587301587302</v>
       </c>
       <c r="AM2" t="n">
         <v>0.493150684931507</v>
@@ -5291,16 +5585,16 @@
         <v>0.526881720430108</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.567901234567901</v>
+        <v>0.566265060240964</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.0123931213373</v>
+        <v>0.990407403227627</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.34153340766182</v>
+        <v>1.32377907585776</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -5318,52 +5612,52 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>114.407724084926</v>
+        <v>111.652183726442</v>
       </c>
       <c r="AY2" t="n">
-        <v>87.2605902400915</v>
+        <v>87.2551485672617</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BC2" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BD2" t="n">
         <v>441</v>
       </c>
       <c r="BE2" t="n">
-        <v>245.31828225574</v>
+        <v>249.168716849114</v>
       </c>
       <c r="BF2" t="n">
-        <v>322.078810000225</v>
+        <v>325.96444860927</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BI2" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BJ2" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="BK2" t="n">
         <v>4591</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.114420213276972</v>
+        <v>0.121205281570929</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.353244205439669</v>
+        <v>0.362432453050249</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -5381,10 +5675,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.375156114900567</v>
+        <v>0.396907798216906</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.800773992136876</v>
+        <v>0.823133038630866</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -5402,109 +5696,130 @@
         <v>5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>123140.336631761</v>
+        <v>122884.054621375</v>
       </c>
       <c r="CA2" t="n">
-        <v>78815.8862175569</v>
+        <v>78298.3613759169</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>65273</v>
+        <v>65934</v>
       </c>
       <c r="CD2" t="n">
-        <v>116728</v>
+        <v>116815</v>
       </c>
       <c r="CE2" t="n">
-        <v>170962</v>
+        <v>170396</v>
       </c>
       <c r="CF2" t="n">
-        <v>639246</v>
+        <v>599395</v>
       </c>
       <c r="CG2" t="n">
-        <v>19965.709770391</v>
+        <v>20007.2357521724</v>
       </c>
       <c r="CH2" t="n">
-        <v>10533.3568714893</v>
+        <v>10411.3151607882</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12291</v>
+        <v>12413</v>
       </c>
       <c r="CK2" t="n">
-        <v>18365</v>
+        <v>18472</v>
       </c>
       <c r="CL2" t="n">
-        <v>25775</v>
+        <v>25862</v>
       </c>
       <c r="CM2" t="n">
         <v>136330</v>
       </c>
       <c r="CN2" t="n">
-        <v>16154.6791238351</v>
+        <v>15886.9712222097</v>
       </c>
       <c r="CO2" t="n">
-        <v>10784.4936842836</v>
+        <v>10484.6246255116</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>8086</v>
+        <v>8008</v>
       </c>
       <c r="CR2" t="n">
-        <v>13857</v>
+        <v>13612</v>
       </c>
       <c r="CS2" t="n">
-        <v>21664</v>
+        <v>21421</v>
       </c>
       <c r="CT2" t="n">
-        <v>117333</v>
+        <v>107968</v>
       </c>
       <c r="CU2" t="n">
-        <v>11251.1799404362</v>
+        <v>11435.4464507392</v>
       </c>
       <c r="CV2" t="n">
-        <v>12674.0361302127</v>
+        <v>12784.7363225274</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>2110</v>
+        <v>2116</v>
       </c>
       <c r="CY2" t="n">
-        <v>6327</v>
+        <v>6503</v>
       </c>
       <c r="CZ2" t="n">
-        <v>16407</v>
+        <v>16852</v>
       </c>
       <c r="DA2" t="n">
         <v>99712</v>
       </c>
       <c r="DB2" t="n">
-        <v>415.128183227906</v>
+        <v>413.305306568859</v>
       </c>
       <c r="DC2" t="n">
-        <v>98.6045959399996</v>
+        <v>97.5643582354111</v>
       </c>
       <c r="DD2" t="n">
         <v>177.410071942446</v>
       </c>
       <c r="DE2" t="n">
-        <v>345.540796963947</v>
+        <v>344.963738920226</v>
       </c>
       <c r="DF2" t="n">
-        <v>412.276474318326</v>
+        <v>410.964467005076</v>
       </c>
       <c r="DG2" t="n">
-        <v>478.214804063861</v>
+        <v>476.268551236749</v>
       </c>
       <c r="DH2" t="n">
         <v>2500</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>29.4747771131926</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>21.3482719382618</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>24</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5858,34 +6173,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11343.694214876</v>
+        <v>11422.7804878049</v>
       </c>
       <c r="B2" t="n">
-        <v>3483.87685116015</v>
+        <v>3458.28197203945</v>
       </c>
       <c r="C2" t="n">
-        <v>833</v>
+        <v>4776</v>
       </c>
       <c r="D2" t="n">
-        <v>8515</v>
+        <v>8494</v>
       </c>
       <c r="E2" t="n">
-        <v>11391</v>
+        <v>11375.5</v>
       </c>
       <c r="F2" t="n">
-        <v>13409</v>
+        <v>13468.25</v>
       </c>
       <c r="G2" t="n">
         <v>21709</v>
       </c>
       <c r="H2" t="n">
-        <v>6.82644628099174</v>
+        <v>6.89024390243902</v>
       </c>
       <c r="I2" t="n">
-        <v>4.53996638377865</v>
+        <v>4.47767051859675</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -5897,22 +6233,22 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
         <v>22</v>
       </c>
       <c r="O2" t="n">
-        <v>4.52066115702479</v>
+        <v>4.19512195121951</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5823089589026</v>
+        <v>2.49661016793237</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -5921,16 +6257,16 @@
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>8.78512396694215</v>
+        <v>9.10975609756098</v>
       </c>
       <c r="W2" t="n">
-        <v>4.92139311504755</v>
+        <v>4.9789832309269</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
@@ -5939,43 +6275,43 @@
         <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>12.75</v>
       </c>
       <c r="AB2" t="n">
         <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>12507.6363636364</v>
+        <v>12276.5975609756</v>
       </c>
       <c r="AD2" t="n">
-        <v>4072.91891849895</v>
+        <v>4050.17958406832</v>
       </c>
       <c r="AE2" t="n">
-        <v>706</v>
+        <v>3786</v>
       </c>
       <c r="AF2" t="n">
-        <v>9830</v>
+        <v>9592.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>12705</v>
+        <v>12784</v>
       </c>
       <c r="AH2" t="n">
-        <v>15230</v>
+        <v>15172</v>
       </c>
       <c r="AI2" t="n">
         <v>23046</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.537190082644628</v>
+        <v>0.560975609756098</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0346329483404072</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.487179487179487</v>
+        <v>0.560975609756098</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.487179487179487</v>
+        <v>0.560975609756098</v>
       </c>
       <c r="AN2" t="n">
         <v>0.560975609756098</v>
@@ -5987,10 +6323,10 @@
         <v>0.560975609756098</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.735537190082645</v>
+        <v>0.597560975609756</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.989685093361539</v>
+        <v>0.927757898623502</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -6008,52 +6344,52 @@
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>73.2561983471074</v>
+        <v>23.2439024390244</v>
       </c>
       <c r="AY2" t="n">
-        <v>77.9215983029973</v>
+        <v>13.0427227480202</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>14.25</v>
       </c>
       <c r="BB2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="BD2" t="n">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="BE2" t="n">
-        <v>263.95867768595</v>
+        <v>305.426829268293</v>
       </c>
       <c r="BF2" t="n">
-        <v>196.108277774219</v>
+        <v>197.426343851606</v>
       </c>
       <c r="BG2" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="BH2" t="n">
-        <v>125</v>
+        <v>163.5</v>
       </c>
       <c r="BI2" t="n">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="BJ2" t="n">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="BK2" t="n">
         <v>835</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.363636363636364</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.577350269189626</v>
+        <v>0.632955243012276</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -6071,19 +6407,19 @@
         <v>2</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.14876033057851</v>
+        <v>1.68292682926829</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.28232313286468</v>
+        <v>1.23606353247248</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX2" t="n">
         <v>2</v>
@@ -6092,109 +6428,130 @@
         <v>6</v>
       </c>
       <c r="BZ2" t="n">
-        <v>163371.280991736</v>
+        <v>183650.109756098</v>
       </c>
       <c r="CA2" t="n">
-        <v>68386.952542648</v>
+        <v>67517.7274120585</v>
       </c>
       <c r="CB2" t="n">
-        <v>2407</v>
+        <v>54582</v>
       </c>
       <c r="CC2" t="n">
-        <v>114611</v>
+        <v>132685.75</v>
       </c>
       <c r="CD2" t="n">
-        <v>155551</v>
+        <v>174386</v>
       </c>
       <c r="CE2" t="n">
-        <v>208413</v>
+        <v>232660</v>
       </c>
       <c r="CF2" t="n">
         <v>440325</v>
       </c>
       <c r="CG2" t="n">
-        <v>26565.4049586777</v>
+        <v>28510.2317073171</v>
       </c>
       <c r="CH2" t="n">
-        <v>11299.5690054817</v>
+        <v>10621.0930319135</v>
       </c>
       <c r="CI2" t="n">
-        <v>913</v>
+        <v>5888</v>
       </c>
       <c r="CJ2" t="n">
-        <v>18562</v>
+        <v>22097.75</v>
       </c>
       <c r="CK2" t="n">
-        <v>26382</v>
+        <v>27404</v>
       </c>
       <c r="CL2" t="n">
-        <v>33059</v>
+        <v>35404.75</v>
       </c>
       <c r="CM2" t="n">
-        <v>59420</v>
+        <v>58366</v>
       </c>
       <c r="CN2" t="n">
-        <v>19343.8347107438</v>
+        <v>18079.1585365854</v>
       </c>
       <c r="CO2" t="n">
-        <v>11593.535311649</v>
+        <v>11348.0995183449</v>
       </c>
       <c r="CP2" t="n">
-        <v>605</v>
+        <v>2853</v>
       </c>
       <c r="CQ2" t="n">
-        <v>11241</v>
+        <v>9940.75</v>
       </c>
       <c r="CR2" t="n">
-        <v>17406</v>
+        <v>16406</v>
       </c>
       <c r="CS2" t="n">
-        <v>23787</v>
+        <v>22834.25</v>
       </c>
       <c r="CT2" t="n">
         <v>61461</v>
       </c>
       <c r="CU2" t="n">
-        <v>21394.6611570248</v>
+        <v>29306.1829268293</v>
       </c>
       <c r="CV2" t="n">
-        <v>17510.1919966409</v>
+        <v>15771.8711581829</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>3354</v>
       </c>
       <c r="CX2" t="n">
-        <v>5800</v>
+        <v>17386.5</v>
       </c>
       <c r="CY2" t="n">
-        <v>17622</v>
+        <v>28385.5</v>
       </c>
       <c r="CZ2" t="n">
-        <v>34624</v>
+        <v>42186</v>
       </c>
       <c r="DA2" t="n">
         <v>68174</v>
       </c>
       <c r="DB2" t="n">
-        <v>425.967796289823</v>
+        <v>425.720634586381</v>
       </c>
       <c r="DC2" t="n">
-        <v>73.5635040923289</v>
+        <v>74.2236133765015</v>
       </c>
       <c r="DD2" t="n">
-        <v>284.288793103448</v>
+        <v>287.980665950591</v>
       </c>
       <c r="DE2" t="n">
-        <v>367.978723404255</v>
+        <v>364.339575668872</v>
       </c>
       <c r="DF2" t="n">
-        <v>415.371669004208</v>
+        <v>415.415426338838</v>
       </c>
       <c r="DG2" t="n">
-        <v>477.33268197362</v>
+        <v>483.658255143914</v>
       </c>
       <c r="DH2" t="n">
         <v>616.224489795918</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>25.9268292682927</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>10.0145332513351</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>26</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6548,34 +6905,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8874.87969924812</v>
+        <v>7167.64197530864</v>
       </c>
       <c r="B2" t="n">
-        <v>3598.7859696174</v>
+        <v>2197.14863691923</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>6358</v>
+        <v>5464</v>
       </c>
       <c r="E2" t="n">
-        <v>8192</v>
+        <v>7200</v>
       </c>
       <c r="F2" t="n">
-        <v>10421</v>
+        <v>8653</v>
       </c>
       <c r="G2" t="n">
-        <v>20735</v>
+        <v>14278</v>
       </c>
       <c r="H2" t="n">
-        <v>3.59398496240602</v>
+        <v>1.95061728395062</v>
       </c>
       <c r="I2" t="n">
-        <v>3.78601412294858</v>
+        <v>1.97421651907726</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -6584,19 +6962,19 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>3</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>5.25563909774436</v>
+        <v>5.20987654320988</v>
       </c>
       <c r="P2" t="n">
-        <v>3.07397219910721</v>
+        <v>3.16510682830262</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -6614,58 +6992,58 @@
         <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>11.0451127819549</v>
+        <v>13.9012345679012</v>
       </c>
       <c r="W2" t="n">
-        <v>7.83046175121135</v>
+        <v>8.32707172160719</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="n">
         <v>38</v>
       </c>
       <c r="AC2" t="n">
-        <v>9291.58646616541</v>
+        <v>7951.49382716049</v>
       </c>
       <c r="AD2" t="n">
-        <v>3961.58694504472</v>
+        <v>3299.57092333025</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>6066</v>
+        <v>5247</v>
       </c>
       <c r="AG2" t="n">
-        <v>8651</v>
+        <v>7619</v>
       </c>
       <c r="AH2" t="n">
-        <v>12016</v>
+        <v>10054</v>
       </c>
       <c r="AI2" t="n">
-        <v>22680</v>
+        <v>17131</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.518796992481203</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0311462350596673</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.476190476190476</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.476190476190476</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="AN2" t="n">
         <v>0.54320987654321</v>
@@ -6677,10 +7055,10 @@
         <v>0.54320987654321</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.443609022556391</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.882605765269904</v>
+        <v>0.421637021355784</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -6692,199 +7070,220 @@
         <v>0</v>
       </c>
       <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>25.4320987654321</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>13.2607864318118</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>27</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>46</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>195.950617283951</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>102.259706291697</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>120</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>183</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>256</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>592</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0246913580246914</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.156149659139502</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
         <v>1</v>
       </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>82.7142857142857</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>78.4951814221326</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>38</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>140</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>288</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>176.842105263158</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>145.870575786835</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>90</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>158</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>214</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1075</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.0150375939849624</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.122162485315295</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.0676691729323308</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.280570002117024</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>2</v>
-      </c>
       <c r="BZ2" t="n">
-        <v>66577.9473684211</v>
+        <v>21538.6419753086</v>
       </c>
       <c r="CA2" t="n">
-        <v>71420.1241655527</v>
+        <v>10092.7386190625</v>
       </c>
       <c r="CB2" t="n">
         <v>489</v>
       </c>
       <c r="CC2" t="n">
-        <v>17358</v>
+        <v>15833</v>
       </c>
       <c r="CD2" t="n">
-        <v>29428</v>
+        <v>19461</v>
       </c>
       <c r="CE2" t="n">
-        <v>92676</v>
+        <v>25783</v>
       </c>
       <c r="CF2" t="n">
-        <v>320455</v>
+        <v>56427</v>
       </c>
       <c r="CG2" t="n">
-        <v>15903.9248120301</v>
+        <v>14338.8888888889</v>
       </c>
       <c r="CH2" t="n">
-        <v>8478.51300447379</v>
+        <v>8144.28227193778</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9390</v>
+        <v>8584</v>
       </c>
       <c r="CK2" t="n">
-        <v>13668</v>
+        <v>12339</v>
       </c>
       <c r="CL2" t="n">
-        <v>20839</v>
+        <v>17125</v>
       </c>
       <c r="CM2" t="n">
         <v>40655</v>
       </c>
       <c r="CN2" t="n">
-        <v>11860.2857142857</v>
+        <v>7532.13580246914</v>
       </c>
       <c r="CO2" t="n">
-        <v>9614.54508179509</v>
+        <v>4213.95794281661</v>
       </c>
       <c r="CP2" t="n">
         <v>89</v>
       </c>
       <c r="CQ2" t="n">
-        <v>5918</v>
+        <v>4592</v>
       </c>
       <c r="CR2" t="n">
-        <v>8764</v>
+        <v>6515</v>
       </c>
       <c r="CS2" t="n">
-        <v>14313</v>
+        <v>9528</v>
       </c>
       <c r="CT2" t="n">
-        <v>64615</v>
+        <v>23711</v>
       </c>
       <c r="CU2" t="n">
-        <v>4744.21052631579</v>
+        <v>1086.22222222222</v>
       </c>
       <c r="CV2" t="n">
-        <v>7789.80948735476</v>
+        <v>1028.81946910039</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>487</v>
+        <v>217</v>
       </c>
       <c r="CY2" t="n">
+        <v>755</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>1709</v>
       </c>
-      <c r="CZ2" t="n">
-        <v>4409</v>
-      </c>
       <c r="DA2" t="n">
-        <v>47474</v>
+        <v>4246</v>
       </c>
       <c r="DB2" t="n">
-        <v>364.593726454784</v>
+        <v>308.083036587074</v>
       </c>
       <c r="DC2" t="n">
-        <v>103.160694878076</v>
+        <v>49.7647441132394</v>
       </c>
       <c r="DD2" t="n">
         <v>228.385026737968</v>
       </c>
       <c r="DE2" t="n">
-        <v>289.813664596273</v>
+        <v>270.438413361169</v>
       </c>
       <c r="DF2" t="n">
-        <v>338.54693877551</v>
+        <v>302.679738562091</v>
       </c>
       <c r="DG2" t="n">
-        <v>410.29520295203</v>
+        <v>330.216271884655</v>
       </c>
       <c r="DH2" t="n">
-        <v>748.727833461835</v>
+        <v>461.538461538462</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>56.2592592592593</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>28.3256852422752</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>35</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>52</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>75</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -7238,34 +7637,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11052.700443787</v>
+        <v>11058.7803700724</v>
       </c>
       <c r="B2" t="n">
-        <v>4132.77093378967</v>
+        <v>4075.59379144329</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>8171.5</v>
+        <v>8184</v>
       </c>
       <c r="E2" t="n">
-        <v>10796</v>
+        <v>10824</v>
       </c>
       <c r="F2" t="n">
-        <v>13742.75</v>
+        <v>13745.5</v>
       </c>
       <c r="G2" t="n">
         <v>29379</v>
       </c>
       <c r="H2" t="n">
-        <v>6.25369822485207</v>
+        <v>6.25100563153661</v>
       </c>
       <c r="I2" t="n">
-        <v>4.74641798858211</v>
+        <v>4.71896900525878</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7280,13 +7700,13 @@
         <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O2" t="n">
-        <v>4.80325443786982</v>
+        <v>4.74818986323411</v>
       </c>
       <c r="P2" t="n">
-        <v>3.03954514698704</v>
+        <v>3.00056133062908</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -7295,7 +7715,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -7304,10 +7724,10 @@
         <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>8.47263313609468</v>
+        <v>8.53419147224457</v>
       </c>
       <c r="W2" t="n">
-        <v>6.24985491621601</v>
+        <v>6.2705569730574</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -7319,37 +7739,37 @@
         <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>11923.7071005917</v>
+        <v>11860.0434432824</v>
       </c>
       <c r="AD2" t="n">
-        <v>4531.01819708367</v>
+        <v>4469.31323727997</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8824.75</v>
+        <v>8759.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11884</v>
+        <v>11872</v>
       </c>
       <c r="AH2" t="n">
-        <v>14877</v>
+        <v>14777</v>
       </c>
       <c r="AI2" t="n">
         <v>33483</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.550295857988166</v>
+        <v>0.554304102976669</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0824486964743999</v>
+        <v>0.0798525389098729</v>
       </c>
       <c r="AL2" t="n">
         <v>0.344827586206897</v>
@@ -7364,13 +7784,13 @@
         <v>0.621212121212121</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.705882352941177</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11538461538462</v>
+        <v>1.11182622687047</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.41682812101552</v>
+        <v>1.41006736698656</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -7388,52 +7808,52 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>121.440828402367</v>
+        <v>119.373290426388</v>
       </c>
       <c r="AY2" t="n">
-        <v>90.6874284096535</v>
+        <v>90.8641763583622</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BC2" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BD2" t="n">
         <v>394</v>
       </c>
       <c r="BE2" t="n">
-        <v>232.614644970414</v>
+        <v>235.790828640386</v>
       </c>
       <c r="BF2" t="n">
-        <v>314.164558036547</v>
+        <v>322.966276058932</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BI2" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BJ2" t="n">
-        <v>279.25</v>
+        <v>280</v>
       </c>
       <c r="BK2" t="n">
         <v>3630</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.125</v>
+        <v>0.132743362831858</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.374892039727142</v>
+        <v>0.386046213361613</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -7451,10 +7871,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.338757396449704</v>
+        <v>0.36283185840708</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.760249049743472</v>
+        <v>0.783979501121727</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -7472,109 +7892,130 @@
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>127755.476331361</v>
+        <v>128498.419147224</v>
       </c>
       <c r="CA2" t="n">
-        <v>87340.5988153226</v>
+        <v>86962.2279632405</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>56868.75</v>
+        <v>58068.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>122764</v>
+        <v>124306</v>
       </c>
       <c r="CE2" t="n">
-        <v>184222.25</v>
+        <v>184362.5</v>
       </c>
       <c r="CF2" t="n">
         <v>582043</v>
       </c>
       <c r="CG2" t="n">
-        <v>20343.2433431953</v>
+        <v>20254.7876106195</v>
       </c>
       <c r="CH2" t="n">
-        <v>10668.2695866091</v>
+        <v>10623.1274663257</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>12642.5</v>
+        <v>12509.5</v>
       </c>
       <c r="CK2" t="n">
-        <v>18876.5</v>
+        <v>18761</v>
       </c>
       <c r="CL2" t="n">
-        <v>26547</v>
+        <v>26740</v>
       </c>
       <c r="CM2" t="n">
         <v>88351</v>
       </c>
       <c r="CN2" t="n">
-        <v>18426.0776627219</v>
+        <v>18296.6773934031</v>
       </c>
       <c r="CO2" t="n">
-        <v>11963.5024970811</v>
+        <v>11645.1633665589</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>9162.25</v>
+        <v>9204.5</v>
       </c>
       <c r="CR2" t="n">
-        <v>15890</v>
+        <v>15858</v>
       </c>
       <c r="CS2" t="n">
-        <v>25083.5</v>
+        <v>24982.5</v>
       </c>
       <c r="CT2" t="n">
         <v>83093</v>
       </c>
       <c r="CU2" t="n">
-        <v>11717.826183432</v>
+        <v>12082.2204344328</v>
       </c>
       <c r="CV2" t="n">
-        <v>13886.0609373892</v>
+        <v>14147.007205386</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1682</v>
+        <v>1773.5</v>
       </c>
       <c r="CY2" t="n">
-        <v>6107.5</v>
+        <v>6443</v>
       </c>
       <c r="CZ2" t="n">
-        <v>16509</v>
+        <v>17337</v>
       </c>
       <c r="DA2" t="n">
         <v>90512</v>
       </c>
       <c r="DB2" t="n">
-        <v>432.465664924462</v>
+        <v>433.693115224992</v>
       </c>
       <c r="DC2" t="n">
-        <v>101.150588301573</v>
+        <v>100.486242653077</v>
       </c>
       <c r="DD2" t="n">
         <v>195.861440291705</v>
       </c>
       <c r="DE2" t="n">
-        <v>354.836674696451</v>
+        <v>357.771456255202</v>
       </c>
       <c r="DF2" t="n">
-        <v>431.996835443038</v>
+        <v>433.494949494949</v>
       </c>
       <c r="DG2" t="n">
-        <v>502.947073419113</v>
+        <v>503.860855170691</v>
       </c>
       <c r="DH2" t="n">
         <v>768.284518828452</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>31.9621882542237</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>22.5127843953215</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>18</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>26</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>39</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7928,34 +8369,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10975.8691983122</v>
+        <v>10850.7818687044</v>
       </c>
       <c r="B2" t="n">
-        <v>3970.92943108389</v>
+        <v>3905.25663448283</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7954.5</v>
+        <v>7868.5</v>
       </c>
       <c r="E2" t="n">
-        <v>10649</v>
+        <v>10557</v>
       </c>
       <c r="F2" t="n">
-        <v>13535.25</v>
+        <v>13385.5</v>
       </c>
       <c r="G2" t="n">
-        <v>27959</v>
+        <v>27266</v>
       </c>
       <c r="H2" t="n">
-        <v>5.85744424352019</v>
+        <v>5.79749913164293</v>
       </c>
       <c r="I2" t="n">
-        <v>4.54905169321723</v>
+        <v>4.56871488073867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7973,10 +8435,10 @@
         <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>4.98975286317058</v>
+        <v>5.00138937130948</v>
       </c>
       <c r="P2" t="n">
-        <v>2.99792167972303</v>
+        <v>3.0037036694757</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -7991,13 +8453,13 @@
         <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V2" t="n">
-        <v>7.89451476793249</v>
+        <v>7.97151788815561</v>
       </c>
       <c r="W2" t="n">
-        <v>5.805382514072</v>
+        <v>5.86788957196537</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -8015,52 +8477,52 @@
         <v>36</v>
       </c>
       <c r="AC2" t="n">
-        <v>11899.8212778782</v>
+        <v>11829.0760680792</v>
       </c>
       <c r="AD2" t="n">
-        <v>4328.32899330554</v>
+        <v>4310.28889576502</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8696.25</v>
+        <v>8603</v>
       </c>
       <c r="AG2" t="n">
-        <v>11657</v>
+        <v>11632</v>
       </c>
       <c r="AH2" t="n">
-        <v>14851.25</v>
+        <v>14727.5</v>
       </c>
       <c r="AI2" t="n">
         <v>28035</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.555432489451477</v>
+        <v>0.557137895102466</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0697142893406469</v>
+        <v>0.0673689464869094</v>
       </c>
       <c r="AL2" t="n">
         <v>0.409090909090909</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.520833333333333</v>
+        <v>0.534883720930233</v>
       </c>
       <c r="AN2" t="n">
         <v>0.55421686746988</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.597560975609756</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.20675105485232</v>
+        <v>1.17679749913164</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.43665029035937</v>
+        <v>1.42266597717337</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -8078,52 +8540,52 @@
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>126.44906570223</v>
+        <v>118.608544633553</v>
       </c>
       <c r="AY2" t="n">
-        <v>93.781477910441</v>
+        <v>92.5216159590132</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="BC2" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="BE2" t="n">
-        <v>253.331223628692</v>
+        <v>261.332407085794</v>
       </c>
       <c r="BF2" t="n">
-        <v>348.20101729165</v>
+        <v>359.96791653345</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>90</v>
+        <v>91.5</v>
       </c>
       <c r="BI2" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BJ2" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BK2" t="n">
         <v>4274</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.116033755274262</v>
+        <v>0.125390760680792</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.360185781049847</v>
+        <v>0.375470025284054</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -8141,10 +8603,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.33996383363472</v>
+        <v>0.372351510941299</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.777766255635455</v>
+        <v>0.813549088636689</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -8162,109 +8624,130 @@
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>132957.050331525</v>
+        <v>130580.8304967</v>
       </c>
       <c r="CA2" t="n">
-        <v>83612.321204113</v>
+        <v>82584.677512507</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>71548</v>
+        <v>68718.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>128750</v>
+        <v>127869</v>
       </c>
       <c r="CE2" t="n">
-        <v>183252.5</v>
+        <v>182518</v>
       </c>
       <c r="CF2" t="n">
-        <v>547928</v>
+        <v>507031</v>
       </c>
       <c r="CG2" t="n">
-        <v>21988.3559373116</v>
+        <v>22367.8610628691</v>
       </c>
       <c r="CH2" t="n">
-        <v>10914.8540454776</v>
+        <v>11044.8163983811</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>14024</v>
+        <v>14307.5</v>
       </c>
       <c r="CK2" t="n">
-        <v>20432</v>
+        <v>20911</v>
       </c>
       <c r="CL2" t="n">
-        <v>28188</v>
+        <v>28570</v>
       </c>
       <c r="CM2" t="n">
         <v>93919</v>
       </c>
       <c r="CN2" t="n">
-        <v>18631.422543701</v>
+        <v>18238.5154567558</v>
       </c>
       <c r="CO2" t="n">
-        <v>12220.0935760252</v>
+        <v>12003.1923769485</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>9462</v>
+        <v>9040.5</v>
       </c>
       <c r="CR2" t="n">
-        <v>16106.5</v>
+        <v>15798</v>
       </c>
       <c r="CS2" t="n">
-        <v>25271.5</v>
+        <v>24701</v>
       </c>
       <c r="CT2" t="n">
-        <v>83355</v>
+        <v>78874</v>
       </c>
       <c r="CU2" t="n">
-        <v>11913.6814345992</v>
+        <v>12201.2028482112</v>
       </c>
       <c r="CV2" t="n">
-        <v>12916.8006801512</v>
+        <v>13296.4792770841</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>2322.75</v>
+        <v>2219</v>
       </c>
       <c r="CY2" t="n">
-        <v>6980</v>
+        <v>7025</v>
       </c>
       <c r="CZ2" t="n">
-        <v>17102.5</v>
+        <v>17565</v>
       </c>
       <c r="DA2" t="n">
         <v>66565</v>
       </c>
       <c r="DB2" t="n">
-        <v>434.428810734143</v>
+        <v>430.271653669274</v>
       </c>
       <c r="DC2" t="n">
-        <v>103.945052517069</v>
+        <v>103.864658379867</v>
       </c>
       <c r="DD2" t="n">
         <v>197.622667588113</v>
       </c>
       <c r="DE2" t="n">
-        <v>359.821764872238</v>
+        <v>354.881879236205</v>
       </c>
       <c r="DF2" t="n">
-        <v>433.611633577151</v>
+        <v>429.985401459854</v>
       </c>
       <c r="DG2" t="n">
-        <v>506.33832487207</v>
+        <v>501.43727085333</v>
       </c>
       <c r="DH2" t="n">
         <v>814.973684210526</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>28.8926710663425</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>21.5784187750391</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>35</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8618,34 +9101,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10320.6959608323</v>
+        <v>10277.4451038576</v>
       </c>
       <c r="B2" t="n">
-        <v>3852.6905169617</v>
+        <v>3830.07541586294</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7516</v>
+        <v>7502.5</v>
       </c>
       <c r="E2" t="n">
-        <v>9848</v>
+        <v>9825</v>
       </c>
       <c r="F2" t="n">
-        <v>12781</v>
+        <v>12644</v>
       </c>
       <c r="G2" t="n">
         <v>29652</v>
       </c>
       <c r="H2" t="n">
-        <v>5.06952264381885</v>
+        <v>5.04882654437551</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3386927232527</v>
+        <v>4.34600890644039</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -8663,10 +9167,10 @@
         <v>34</v>
       </c>
       <c r="O2" t="n">
-        <v>4.89351285189719</v>
+        <v>4.88858915565147</v>
       </c>
       <c r="P2" t="n">
-        <v>2.90093867118732</v>
+        <v>2.87849777003756</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8684,10 +9188,10 @@
         <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>8.47270501835985</v>
+        <v>8.64391691394659</v>
       </c>
       <c r="W2" t="n">
-        <v>6.23927496261743</v>
+        <v>6.29877557564993</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -8705,115 +9209,115 @@
         <v>36</v>
       </c>
       <c r="AC2" t="n">
-        <v>11421.0440636475</v>
+        <v>11358.6520097114</v>
       </c>
       <c r="AD2" t="n">
-        <v>4299.40807134816</v>
+        <v>4262.88031834084</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8264</v>
+        <v>8217.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11189</v>
+        <v>11180</v>
       </c>
       <c r="AH2" t="n">
-        <v>14149</v>
+        <v>14037.5</v>
       </c>
       <c r="AI2" t="n">
         <v>33095</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.534902080783354</v>
+        <v>0.530078230374966</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0632730879965356</v>
+        <v>0.0532167336632622</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.421052631578947</v>
+        <v>0.427083333333333</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.494505494505495</v>
+        <v>0.49438202247191</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.525</v>
+        <v>0.522222222222222</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.577777777777778</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="AP2" t="n">
+        <v>0.690909090909091</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.965200971135689</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.32379433535969</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
         <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1.00342717258262</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.36934680800858</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>2</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>114.122154222766</v>
+        <v>109.016994874562</v>
       </c>
       <c r="AY2" t="n">
-        <v>91.9277891844973</v>
+        <v>91.4905618996234</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="BC2" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BD2" t="n">
         <v>492</v>
       </c>
       <c r="BE2" t="n">
-        <v>260.568665850673</v>
+        <v>263.244402481791</v>
       </c>
       <c r="BF2" t="n">
-        <v>395.145810498681</v>
+        <v>383.878347515377</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BI2" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BJ2" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="BK2" t="n">
-        <v>6151</v>
+        <v>5400</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.103059975520196</v>
+        <v>0.11141084434853</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.342690480610388</v>
+        <v>0.35573602138975</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -8831,10 +9335,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.302080783353733</v>
+        <v>0.328837334772053</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.725772969911687</v>
+        <v>0.75421951898312</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -8852,109 +9356,130 @@
         <v>5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>116588.028886169</v>
+        <v>115771.786350148</v>
       </c>
       <c r="CA2" t="n">
-        <v>84536.1244229886</v>
+        <v>84952.4826053126</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>33253</v>
+        <v>30278.5</v>
       </c>
       <c r="CD2" t="n">
-        <v>110386</v>
+        <v>109503</v>
       </c>
       <c r="CE2" t="n">
-        <v>170281</v>
+        <v>169923</v>
       </c>
       <c r="CF2" t="n">
         <v>626877</v>
       </c>
       <c r="CG2" t="n">
-        <v>20653.8521419829</v>
+        <v>20758.0663609388</v>
       </c>
       <c r="CH2" t="n">
-        <v>10507.982334846</v>
+        <v>10496.406768051</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>13168</v>
+        <v>13284.5</v>
       </c>
       <c r="CK2" t="n">
-        <v>19059</v>
+        <v>19169</v>
       </c>
       <c r="CL2" t="n">
-        <v>26396</v>
+        <v>26459</v>
       </c>
       <c r="CM2" t="n">
         <v>104745</v>
       </c>
       <c r="CN2" t="n">
-        <v>15959.7297429621</v>
+        <v>15749.0161855948</v>
       </c>
       <c r="CO2" t="n">
-        <v>11294.8791268918</v>
+        <v>11208.6018090589</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7649</v>
+        <v>7600</v>
       </c>
       <c r="CR2" t="n">
-        <v>13043</v>
+        <v>12854</v>
       </c>
       <c r="CS2" t="n">
-        <v>21443</v>
+        <v>21141</v>
       </c>
       <c r="CT2" t="n">
         <v>85704</v>
       </c>
       <c r="CU2" t="n">
-        <v>10348.5072215422</v>
+        <v>10642.9665497707</v>
       </c>
       <c r="CV2" t="n">
-        <v>12577.0065388671</v>
+        <v>12931.9151481848</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1638</v>
+        <v>1579</v>
       </c>
       <c r="CY2" t="n">
-        <v>5189</v>
+        <v>5266</v>
       </c>
       <c r="CZ2" t="n">
-        <v>14228</v>
+        <v>14826</v>
       </c>
       <c r="DA2" t="n">
         <v>81718</v>
       </c>
       <c r="DB2" t="n">
-        <v>406.387766051497</v>
+        <v>403.664131269876</v>
       </c>
       <c r="DC2" t="n">
-        <v>103.665361567959</v>
+        <v>102.804781692833</v>
       </c>
       <c r="DD2" t="n">
         <v>197.302631578947</v>
       </c>
       <c r="DE2" t="n">
-        <v>324.911742133538</v>
+        <v>323.142532869045</v>
       </c>
       <c r="DF2" t="n">
-        <v>402.394603709949</v>
+        <v>398.882938026014</v>
       </c>
       <c r="DG2" t="n">
-        <v>478.189386056191</v>
+        <v>475.864060870916</v>
       </c>
       <c r="DH2" t="n">
         <v>844.562334217507</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>32.7008362557324</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>25.0870326800653</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>25</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>41</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -9308,34 +9833,55 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10740.4277244495</v>
+        <v>10739.9335347432</v>
       </c>
       <c r="B2" t="n">
-        <v>3873.86055838503</v>
+        <v>3857.5341637544</v>
       </c>
       <c r="C2" t="n">
         <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>7853</v>
+        <v>7847.25</v>
       </c>
       <c r="E2" t="n">
-        <v>10491.5</v>
+        <v>10522.5</v>
       </c>
       <c r="F2" t="n">
-        <v>13270.75</v>
+        <v>13275.5</v>
       </c>
       <c r="G2" t="n">
         <v>27623</v>
       </c>
       <c r="H2" t="n">
-        <v>5.43195934500282</v>
+        <v>5.40030211480363</v>
       </c>
       <c r="I2" t="n">
-        <v>4.35825432260555</v>
+        <v>4.32750379779627</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -9353,10 +9899,10 @@
         <v>28</v>
       </c>
       <c r="O2" t="n">
-        <v>4.85460191981931</v>
+        <v>4.84864048338369</v>
       </c>
       <c r="P2" t="n">
-        <v>2.85625301777118</v>
+        <v>2.86490255175622</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -9374,10 +9920,10 @@
         <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>7.94607566346697</v>
+        <v>7.91299093655589</v>
       </c>
       <c r="W2" t="n">
-        <v>5.79769794443258</v>
+        <v>5.81852434587432</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -9395,40 +9941,40 @@
         <v>38</v>
       </c>
       <c r="AC2" t="n">
-        <v>11799.4949181254</v>
+        <v>11816.4063444109</v>
       </c>
       <c r="AD2" t="n">
-        <v>4246.78806048427</v>
+        <v>4235.26724564423</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>8633.5</v>
+        <v>8638</v>
       </c>
       <c r="AG2" t="n">
-        <v>11662</v>
+        <v>11703.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>14632</v>
+        <v>14640</v>
       </c>
       <c r="AI2" t="n">
         <v>28356</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.538961038961039</v>
+        <v>0.539274924471299</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0628392845869174</v>
+        <v>0.0613229269949979</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.422535211267606</v>
       </c>
       <c r="AM2" t="n">
         <v>0.488095238095238</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.545983086680761</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="AO2" t="n">
         <v>0.58</v>
@@ -9437,10 +9983,10 @@
         <v>0.684782608695652</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.15866741953698</v>
+        <v>1.17462235649547</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.40889465890962</v>
+        <v>1.41795551681697</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -9458,52 +10004,52 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>130.060982495765</v>
+        <v>132.8</v>
       </c>
       <c r="AY2" t="n">
-        <v>89.856701049296</v>
+        <v>88.961252477861</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BB2" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BC2" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BD2" t="n">
         <v>442</v>
       </c>
       <c r="BE2" t="n">
-        <v>267.98023715415</v>
+        <v>266.723262839879</v>
       </c>
       <c r="BF2" t="n">
-        <v>413.667476736333</v>
+        <v>414.978851408815</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BI2" t="n">
-        <v>170</v>
+        <v>167.5</v>
       </c>
       <c r="BJ2" t="n">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="BK2" t="n">
         <v>4603</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.102484472049689</v>
+        <v>0.0954682779456193</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.339359221689844</v>
+        <v>0.327924701574992</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -9521,10 +10067,10 @@
         <v>3</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.272727272727273</v>
+        <v>0.248640483383686</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.680661475070081</v>
+        <v>0.651002639812606</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -9542,109 +10088,130 @@
         <v>4</v>
       </c>
       <c r="BZ2" t="n">
-        <v>125861.640316206</v>
+        <v>124844.311480363</v>
       </c>
       <c r="CA2" t="n">
-        <v>81517.5237840872</v>
+        <v>80596.4300965246</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>62102.25</v>
+        <v>61176.75</v>
       </c>
       <c r="CD2" t="n">
-        <v>122554.5</v>
+        <v>121195</v>
       </c>
       <c r="CE2" t="n">
-        <v>177249</v>
+        <v>176336</v>
       </c>
       <c r="CF2" t="n">
         <v>573045</v>
       </c>
       <c r="CG2" t="n">
-        <v>20655.7803500847</v>
+        <v>20468.6214501511</v>
       </c>
       <c r="CH2" t="n">
-        <v>10198.0996292605</v>
+        <v>10090.2362784792</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>13445.5</v>
+        <v>13338</v>
       </c>
       <c r="CK2" t="n">
-        <v>19127</v>
+        <v>18884</v>
       </c>
       <c r="CL2" t="n">
-        <v>26200</v>
+        <v>25990.5</v>
       </c>
       <c r="CM2" t="n">
-        <v>96789</v>
+        <v>89176</v>
       </c>
       <c r="CN2" t="n">
-        <v>17599.1146245059</v>
+        <v>17648.9854984894</v>
       </c>
       <c r="CO2" t="n">
-        <v>11484.3196360189</v>
+        <v>11379.3132125481</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>8662</v>
+        <v>8774</v>
       </c>
       <c r="CR2" t="n">
-        <v>15445</v>
+        <v>15568</v>
       </c>
       <c r="CS2" t="n">
-        <v>23579</v>
+        <v>23596.75</v>
       </c>
       <c r="CT2" t="n">
-        <v>84897</v>
+        <v>72506</v>
       </c>
       <c r="CU2" t="n">
-        <v>10832.3181818182</v>
+        <v>10512.6918429003</v>
       </c>
       <c r="CV2" t="n">
-        <v>12398.9785572228</v>
+        <v>12134.7993649</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1899.25</v>
+        <v>1836</v>
       </c>
       <c r="CY2" t="n">
-        <v>6174.5</v>
+        <v>5923</v>
       </c>
       <c r="CZ2" t="n">
-        <v>15247</v>
+        <v>14741.75</v>
       </c>
       <c r="DA2" t="n">
         <v>84185</v>
       </c>
       <c r="DB2" t="n">
-        <v>421.378976358901</v>
+        <v>421.655350834733</v>
       </c>
       <c r="DC2" t="n">
-        <v>103.319460384458</v>
+        <v>103.079263719434</v>
       </c>
       <c r="DD2" t="n">
         <v>199.469387755102</v>
       </c>
       <c r="DE2" t="n">
-        <v>346.625436626746</v>
+        <v>347.061568810844</v>
       </c>
       <c r="DF2" t="n">
-        <v>421.908137035945</v>
+        <v>421.670977775959</v>
       </c>
       <c r="DG2" t="n">
-        <v>490.075546078198</v>
+        <v>490.112520339701</v>
       </c>
       <c r="DH2" t="n">
-        <v>805.912162162162</v>
+        <v>768.214285714286</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>30.1670694864048</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>23.4691634940084</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>35</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
